--- a/Team-Data/2012-13/3-2-2012-13.xlsx
+++ b/Team-Data/2012-13/3-2-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
@@ -771,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,43 +1115,43 @@
         <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.441</v>
       </c>
       <c r="L4" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
         <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P4" t="n">
         <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R4" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S4" t="n">
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U4" t="n">
         <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1093,31 +1160,31 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
         <v>18.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1126,10 +1193,10 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1153,37 +1220,37 @@
         <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
         <v>4.8</v>
@@ -1424,73 +1491,73 @@
         <v>14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O6" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1502,22 +1569,22 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
         <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1532,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
@@ -1681,10 +1748,10 @@
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE8" t="n">
         <v>18</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>19</v>
@@ -1848,7 +1915,7 @@
         <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>7</v>
@@ -1857,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1869,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2042,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>16</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -2224,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.55</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,16 +2389,16 @@
         <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
         <v>0.394</v>
@@ -2340,7 +2407,7 @@
         <v>17.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.798</v>
@@ -2349,28 +2416,28 @@
         <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
         <v>22.5</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA11" t="n">
         <v>19.4</v>
@@ -2379,13 +2446,13 @@
         <v>100.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2397,28 +2464,28 @@
         <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2433,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2776,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2788,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -2958,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3128,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3161,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3179,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3307,10 +3374,10 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
         <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.509</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R18" t="n">
         <v>12.9</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U18" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V18" t="n">
         <v>14.4</v>
@@ -3641,25 +3708,25 @@
         <v>7.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z18" t="n">
         <v>19.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3668,22 +3735,22 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
         <v>20</v>
@@ -3692,22 +3759,22 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT18" t="n">
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV18" t="n">
         <v>10</v>
@@ -3728,7 +3795,7 @@
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.357</v>
+        <v>0.364</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.298</v>
+        <v>0.3</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R19" t="n">
         <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T19" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>8.199999999999999</v>
@@ -3829,16 +3896,16 @@
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
         <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3853,13 +3920,13 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
         <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3877,22 +3944,22 @@
         <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -3907,13 +3974,13 @@
         <v>5</v>
       </c>
       <c r="BA19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>22</v>
@@ -4065,13 +4132,13 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4223,7 +4290,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4244,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4402,7 +4469,7 @@
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>9</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="n">
         <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.404</v>
+        <v>0.393</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
         <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M24" t="n">
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.356</v>
+        <v>0.35</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.1</v>
@@ -4742,16 +4809,16 @@
         <v>16.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4760,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>16</v>
@@ -4772,13 +4839,13 @@
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,28 +4866,28 @@
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX24" t="n">
         <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB24" t="n">
         <v>30</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>29</v>
       </c>
       <c r="BC24" t="n">
         <v>26</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4978,10 +5045,10 @@
         <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -5034,31 +5101,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
         <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.466</v>
+        <v>0.456</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
         <v>23.7</v>
@@ -5067,52 +5134,52 @@
         <v>0.339</v>
       </c>
       <c r="O26" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P26" t="n">
         <v>21</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R26" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V26" t="n">
         <v>15.1</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AA26" t="n">
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.6</v>
+        <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,22 +5191,22 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>26</v>
@@ -5151,19 +5218,19 @@
         <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>22</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
@@ -5187,7 +5254,7 @@
         <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>16</v>
@@ -5366,7 +5433,7 @@
         <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>81.7</v>
       </c>
       <c r="K29" t="n">
         <v>0.441</v>
@@ -5607,7 +5674,7 @@
         <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.349</v>
@@ -5628,13 +5695,13 @@
         <v>29</v>
       </c>
       <c r="T29" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U29" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
@@ -5646,19 +5713,19 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5670,16 +5737,16 @@
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -5858,7 +5925,7 @@
         <v>14</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
@@ -5888,7 +5955,7 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6049,10 +6116,10 @@
         <v>18</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6070,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
@@ -6082,7 +6149,7 @@
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
         <v>14</v>
@@ -6094,7 +6161,7 @@
         <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-2-2012-13</t>
+          <t>2013-03-02</t>
         </is>
       </c>
     </row>
